--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1574DC1C-24FF-42A5-8A9B-861EB70358BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49282D1-5606-4C42-BD77-1C2E6E3935BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="128">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -454,9 +454,6 @@
     <t>1,3,5,7,10,13</t>
   </si>
   <si>
-    <t>1,3,5,8,10,14</t>
-  </si>
-  <si>
     <t>2,4,6,12</t>
   </si>
   <si>
@@ -572,6 +569,12 @@
   </si>
   <si>
     <t>not-yet</t>
+  </si>
+  <si>
+    <t>1,3,5,7,10,14</t>
+  </si>
+  <si>
+    <t>IllegalArgumentException</t>
   </si>
 </sst>
 </file>
@@ -1334,6 +1337,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1349,181 +1386,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1531,6 +1401,48 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,22 +1461,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1572,7 +1470,76 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1584,35 +1551,71 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1928,8 +1931,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1942,12 +1945,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
       <c r="H1" s="30" t="s">
         <v>1</v>
       </c>
@@ -1955,11 +1958,11 @@
       <c r="J1" s="30"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2119,21 +2122,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="29"/>
@@ -2156,8 +2159,8 @@
   </sheetPr>
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,43 +2182,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="G5" s="50" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="G5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
@@ -2230,67 +2233,67 @@
       <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="37" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="37"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="62" t="s">
         <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="40"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="38"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="36">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2300,192 +2303,192 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="L8" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="98"/>
+        <v>10</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="62" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="G9" s="108">
+      <c r="G9" s="34">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K9" s="2">
         <v>-1</v>
       </c>
-      <c r="L9" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98"/>
+      <c r="L9" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="35">
         <v>3</v>
       </c>
-      <c r="H10" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" s="99" t="s">
+      <c r="H10" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="101"/>
+      <c r="L10" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="109">
+      <c r="G11" s="35">
         <v>4</v>
       </c>
-      <c r="H11" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="93">
+      <c r="H11" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="33">
         <v>9</v>
       </c>
-      <c r="J11" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="101"/>
+      <c r="J11" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="58"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="31">
         <v>5</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93">
+      <c r="H12" s="33"/>
+      <c r="I12" s="33">
         <v>7</v>
       </c>
-      <c r="J12" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="93">
+      <c r="J12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="33">
         <v>0.1</v>
       </c>
-      <c r="L12" s="99" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
+      <c r="L12" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="G13" s="91">
+      <c r="G13" s="31">
         <v>6</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93">
+      <c r="H13" s="33"/>
+      <c r="I13" s="33">
         <v>10</v>
       </c>
-      <c r="J13" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="93">
+      <c r="J13" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="33">
         <v>50</v>
       </c>
-      <c r="L13" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="101"/>
+      <c r="L13" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>78</v>
@@ -2495,7 +2498,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>79</v>
@@ -2505,7 +2508,7 @@
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="59" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2517,7 +2520,7 @@
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="4" t="s">
         <v>82</v>
       </c>
@@ -2527,7 +2530,7 @@
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>83</v>
@@ -2537,7 +2540,7 @@
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="59" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -2549,7 +2552,7 @@
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>84</v>
@@ -2559,7 +2562,7 @@
       <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>85</v>
@@ -2571,21 +2574,12 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C7:C8"/>
@@ -2597,7 +2591,16 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2610,8 +2613,8 @@
   </sheetPr>
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2635,44 +2638,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
     </row>
     <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -2685,345 +2688,331 @@
         <v>30</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="53" t="s">
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="55"/>
-    </row>
-    <row r="7" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="44">
+      <c r="R6" s="90"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="59">
         <v>1</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="81"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="60"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="35">
+        <v>1</v>
+      </c>
+      <c r="H8" s="39">
+        <v>1.8</v>
+      </c>
+      <c r="I8" s="40">
+        <v>2</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40">
+        <v>1</v>
+      </c>
+      <c r="N8" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="84"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="60"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="35">
+        <v>2</v>
+      </c>
+      <c r="H9" s="39">
+        <v>6.8</v>
+      </c>
+      <c r="I9" s="40">
+        <v>4</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="40">
+        <v>9</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40">
+        <v>1</v>
+      </c>
+      <c r="N9" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="84"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="60"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="36">
+        <v>3</v>
+      </c>
+      <c r="H10" s="39">
+        <v>2.9</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="40">
+        <v>1</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="84"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="60"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="36">
+        <v>4</v>
+      </c>
+      <c r="H11" s="39">
+        <v>3.1</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="40">
+        <v>2</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="61"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="35">
+        <v>5</v>
+      </c>
+      <c r="H12" s="39">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I12" s="40">
+        <v>4</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="40">
+        <v>7</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="84"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="59">
+        <v>2</v>
+      </c>
+      <c r="C13" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="116"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="109">
-        <v>1</v>
-      </c>
-      <c r="H8" s="113">
-        <v>1.7</v>
-      </c>
-      <c r="I8" s="114">
-        <v>2</v>
-      </c>
-      <c r="J8" s="114" t="s">
+      <c r="D13" s="74"/>
+      <c r="G13" s="35">
+        <v>6</v>
+      </c>
+      <c r="H13" s="39">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I13" s="40">
+        <v>4</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="40">
+        <v>8</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="114">
-        <v>0</v>
-      </c>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114">
-        <v>0</v>
-      </c>
-      <c r="N8" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="95"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="109">
-        <v>2</v>
-      </c>
-      <c r="H9" s="113">
-        <v>6.8</v>
-      </c>
-      <c r="I9" s="114">
-        <v>4</v>
-      </c>
-      <c r="J9" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="114">
-        <v>9</v>
-      </c>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114">
-        <v>1</v>
-      </c>
-      <c r="N9" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="95"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="111" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="110">
+      <c r="N13" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="84"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="60"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="60"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="60"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="60"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="61"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="59">
         <v>3</v>
       </c>
-      <c r="H10" s="113">
-        <v>2.9</v>
-      </c>
-      <c r="I10" s="114">
-        <v>1</v>
-      </c>
-      <c r="J10" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="114">
-        <v>1</v>
-      </c>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="95"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="110">
-        <v>4</v>
-      </c>
-      <c r="H11" s="113">
-        <v>3.1</v>
-      </c>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="114">
-        <v>2</v>
-      </c>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="N11" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="95"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="112" t="s">
+      <c r="C19" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="109">
-        <v>5</v>
-      </c>
-      <c r="H12" s="113">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="I12" s="114">
-        <v>4</v>
-      </c>
-      <c r="J12" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="114">
-        <v>7</v>
-      </c>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114" t="s">
-        <v>114</v>
-      </c>
-      <c r="N12" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="95"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="44">
-        <v>2</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="103"/>
-      <c r="G13" s="109">
-        <v>6</v>
-      </c>
-      <c r="H13" s="113">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="I13" s="114">
-        <v>4</v>
-      </c>
-      <c r="J13" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="114">
-        <v>8</v>
-      </c>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="95"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="105"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="44">
-        <v>3</v>
-      </c>
-      <c r="C19" s="58" t="s">
+      <c r="D19" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="112" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="60"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="111" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="60"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="111" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="60"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="60"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="112" t="s">
-        <v>112</v>
-      </c>
-    </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
-      <c r="C24" s="60"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C13:D18"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="B19:B24"/>
@@ -3033,6 +3022,20 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="K6:P6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:D18"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3047,8 +3050,8 @@
   </sheetPr>
   <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3064,78 +3067,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="41" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="41"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="72"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="86"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="85"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
       <c r="N5" s="11" t="s">
         <v>44</v>
       </c>
@@ -3144,7 +3147,7 @@
       <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="110" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -3153,24 +3156,24 @@
       <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="130">
+      <c r="F6" s="43">
         <v>1</v>
       </c>
-      <c r="G6" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="130">
-        <v>20.5</v>
-      </c>
-      <c r="I6" s="118" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="121" t="s">
-        <v>92</v>
+      <c r="G6" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="43">
+        <v>10</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="41" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -3178,31 +3181,31 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="114">
-        <v>0</v>
-      </c>
-      <c r="G7" s="114" t="s">
+      <c r="F7" s="40">
+        <v>6</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="40">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="39" t="s">
         <v>91</v>
-      </c>
-      <c r="H7" s="114">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="113" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -3210,31 +3213,31 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="114">
+      <c r="F8" s="40">
         <v>7</v>
       </c>
-      <c r="G8" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="114">
+      <c r="G8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="40">
         <v>0.1</v>
       </c>
-      <c r="I8" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="113" t="s">
-        <v>92</v>
+      <c r="I8" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="39" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -3242,31 +3245,31 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="39">
         <v>10</v>
       </c>
-      <c r="G9" s="113" t="s">
+      <c r="G9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="39">
+        <v>50</v>
+      </c>
+      <c r="I9" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="39" t="s">
         <v>91</v>
-      </c>
-      <c r="H9" s="113">
-        <v>50</v>
-      </c>
-      <c r="I9" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="113" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -3274,31 +3277,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="114">
+        <v>118</v>
+      </c>
+      <c r="F10" s="40">
         <v>0</v>
       </c>
-      <c r="G10" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="114">
-        <v>0</v>
-      </c>
-      <c r="I10" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="113" t="s">
-        <v>92</v>
+      <c r="G10" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="39" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -3306,31 +3309,31 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="114">
+        <v>119</v>
+      </c>
+      <c r="F11" s="40">
         <v>9</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="39" t="s">
         <v>91</v>
-      </c>
-      <c r="H11" s="114">
-        <v>1</v>
-      </c>
-      <c r="I11" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="113" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -3338,31 +3341,31 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="114">
+      <c r="F12" s="40">
         <v>1</v>
       </c>
-      <c r="G12" s="114" t="s">
+      <c r="G12" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="113" t="s">
-        <v>92</v>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="39" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3370,31 +3373,31 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="126">
+      <c r="F13" s="42">
         <v>2</v>
       </c>
-      <c r="G13" s="126" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="126" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="126" t="s">
-        <v>92</v>
+      <c r="G13" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="42" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3424,98 +3427,98 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="63" t="s">
+      <c r="I17" s="123"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="66"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="122"/>
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="80"/>
-      <c r="J18" s="62" t="s">
+      <c r="I18" s="125"/>
+      <c r="J18" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="62" t="s">
+      <c r="K18" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="67" t="s">
+      <c r="M18" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="62" t="s">
+      <c r="N18" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="62" t="s">
+      <c r="O18" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="P18" s="61" t="s">
+      <c r="P18" s="119" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="61"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="119"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
@@ -3536,10 +3539,10 @@
       <c r="G20" s="25">
         <v>2</v>
       </c>
-      <c r="H20" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="76"/>
+      <c r="H20" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="116"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N20" s="2">
         <v>4</v>
@@ -3564,17 +3567,47 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="I5:M5"/>
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="I7:M7"/>
@@ -3582,36 +3615,6 @@
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="I11:M11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3620,21 +3623,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3778,31 +3766,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fed1744a-f275-4023-9290-77fd546fd730"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3818,4 +3797,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fed1744a-f275-4023-9290-77fd546fd730"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>